--- a/models/ctmc/kanban/parameters.xlsx
+++ b/models/ctmc/kanban/parameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
@@ -28,15 +28,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>gaussian</t>
-  </si>
-  <si>
     <t>property</t>
   </si>
   <si>
@@ -155,6 +146,51 @@
   </si>
   <si>
     <t>in1</t>
+  </si>
+  <si>
+    <t>out4</t>
+  </si>
+  <si>
+    <t>synch123</t>
+  </si>
+  <si>
+    <t>synch234</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>redo1</t>
+  </si>
+  <si>
+    <t>redo2</t>
+  </si>
+  <si>
+    <t>redo3</t>
+  </si>
+  <si>
+    <t>redo4</t>
+  </si>
+  <si>
+    <t>ok1</t>
+  </si>
+  <si>
+    <t>ok2</t>
+  </si>
+  <si>
+    <t>ok3</t>
+  </si>
+  <si>
+    <t>ok4</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>ub</t>
   </si>
 </sst>
 </file>
@@ -509,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,24 +561,192 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0.9</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>0.85</v>
+      </c>
+      <c r="D3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>0.35</v>
+      </c>
+      <c r="D4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>0.45</v>
+      </c>
+      <c r="D5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>0.33</v>
+      </c>
+      <c r="D7">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>0.39</v>
+      </c>
+      <c r="D8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>0.36</v>
+      </c>
+      <c r="D9">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0.8</v>
+      </c>
+      <c r="D11">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>0.94</v>
+      </c>
+      <c r="D12">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>0.88</v>
+      </c>
+      <c r="D13">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>0.74</v>
+      </c>
+      <c r="D14">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -566,21 +770,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -588,10 +792,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>

--- a/models/ctmc/kanban/parameters.xlsx
+++ b/models/ctmc/kanban/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -191,6 +191,114 @@
   </si>
   <si>
     <t>ub</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>tokens_cell3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"}=? [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>tokens_cell4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"}=? [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ]</t>
+    </r>
+  </si>
+  <si>
+    <t>Exp. tokens cell 3</t>
+  </si>
+  <si>
+    <t>Exp. tokens cell 4</t>
   </si>
 </sst>
 </file>
@@ -547,9 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -756,15 +862,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -801,6 +907,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/models/ctmc/kanban/parameters.xlsx
+++ b/models/ctmc/kanban/parameters.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="Properties" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -28,123 +27,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>{"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>tokens_cell1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">"}=? [ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>{"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>tokens_cell2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">"}=? [ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ]</t>
-    </r>
-  </si>
-  <si>
-    <t>Exp. tokens cell 1</t>
-  </si>
-  <si>
-    <t>Exp. tokens cell 2</t>
-  </si>
-  <si>
     <t>in1</t>
   </si>
   <si>
@@ -191,146 +73,19 @@
   </si>
   <si>
     <t>ub</t>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>{"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>tokens_cell3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">"}=? [ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>{"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>tokens_cell4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">"}=? [ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> ]</t>
-    </r>
-  </si>
-  <si>
-    <t>Exp. tokens cell 3</t>
-  </si>
-  <si>
-    <t>Exp. tokens cell 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -341,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -349,30 +104,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,7 +392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -667,18 +406,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0.9</v>
@@ -689,10 +428,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0.85</v>
@@ -703,10 +442,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>0.35</v>
@@ -717,10 +456,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0.45</v>
@@ -731,10 +470,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0.25</v>
@@ -745,10 +484,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0.33</v>
@@ -759,10 +498,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0.39</v>
@@ -773,10 +512,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0.36</v>
@@ -787,10 +526,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0.3</v>
@@ -801,10 +540,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0.8</v>
@@ -815,10 +554,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>0.94</v>
@@ -829,10 +568,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0.88</v>
@@ -843,90 +582,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>0.74</v>
       </c>
       <c r="D14">
         <v>0.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
